--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/批发零售贸易、住宿和餐饮业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/批发零售贸易、住宿和餐饮业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,232 +523,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.058061973270193</v>
+        <v>0.040287053125495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.046739378279068</v>
+        <v>0.0339792783028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.136515431413873</v>
+        <v>0.143676550585958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09762950673821399</v>
+        <v>0.083406162658636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005117883157165</v>
+        <v>0.004584951993464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.088826717512659</v>
+        <v>0.07562830449551899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.066990444604364</v>
+        <v>0.055482404157807</v>
       </c>
       <c r="I2" t="n">
-        <v>0.139356168718597</v>
+        <v>0.098439020645829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.046105600844842</v>
+        <v>0.034531724234786</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07297969592006701</v>
+        <v>0.05816447035839</v>
       </c>
       <c r="L2" t="n">
-        <v>0.034454503914225</v>
+        <v>0.028446969840055</v>
       </c>
       <c r="M2" t="n">
-        <v>0.116743531257056</v>
+        <v>0.096556590641506</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06008990473658</v>
+        <v>0.055141454193849</v>
       </c>
       <c r="O2" t="n">
-        <v>0.064560870249375</v>
+        <v>0.045742726556043</v>
       </c>
       <c r="P2" t="n">
-        <v>0.058282510497768</v>
+        <v>0.052076185027067</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.010092217637216</v>
+        <v>0.009877881115372999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.162275682895016</v>
+        <v>0.183300984191626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.040287053125495</v>
+        <v>0.037121094290562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0339792783028</v>
+        <v>0.026367060710364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.143676550585958</v>
+        <v>0.09607648825734599</v>
       </c>
       <c r="E3" t="n">
-        <v>0.083406162658636</v>
+        <v>0.057150887683334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004584951993464</v>
+        <v>0.007377568028662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07562830449551899</v>
+        <v>0.14413320518141</v>
       </c>
       <c r="H3" t="n">
-        <v>0.055482404157807</v>
+        <v>0.074163828500035</v>
       </c>
       <c r="I3" t="n">
-        <v>0.098439020645829</v>
+        <v>0.071992257012178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.034531724234786</v>
+        <v>0.029007441788539</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05816447035839</v>
+        <v>0.036367514260316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.028446969840055</v>
+        <v>0.016125506856284</v>
       </c>
       <c r="M3" t="n">
-        <v>0.096556590641506</v>
+        <v>0.070050437528502</v>
       </c>
       <c r="N3" t="n">
-        <v>0.055141454193849</v>
+        <v>0.039437161029575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.045742726556043</v>
+        <v>0.037258577413338</v>
       </c>
       <c r="P3" t="n">
-        <v>0.052076185027067</v>
+        <v>0.069142500855259</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009877881115372999</v>
+        <v>0.006156743241474</v>
       </c>
       <c r="R3" t="n">
-        <v>0.183300984191626</v>
+        <v>0.126871706585978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.037121094290562</v>
+        <v>0.043890084672379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.026367060710364</v>
+        <v>0.032109832429537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09607648825734599</v>
+        <v>0.103574666271158</v>
       </c>
       <c r="E4" t="n">
-        <v>0.057150887683334</v>
+        <v>0.062601482698914</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007377568028662</v>
+        <v>0.007502266063751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14413320518141</v>
+        <v>0.202505538393994</v>
       </c>
       <c r="H4" t="n">
-        <v>0.074163828500035</v>
+        <v>0.086753153050382</v>
       </c>
       <c r="I4" t="n">
-        <v>0.071992257012178</v>
+        <v>0.093062067264752</v>
       </c>
       <c r="J4" t="n">
-        <v>0.029007441788539</v>
+        <v>0.024282355590826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.036367514260316</v>
+        <v>0.035117316320656</v>
       </c>
       <c r="L4" t="n">
-        <v>0.016125506856284</v>
+        <v>0.019489388968613</v>
       </c>
       <c r="M4" t="n">
-        <v>0.070050437528502</v>
+        <v>0.080655250157948</v>
       </c>
       <c r="N4" t="n">
-        <v>0.039437161029575</v>
+        <v>0.02737382243701</v>
       </c>
       <c r="O4" t="n">
-        <v>0.037258577413338</v>
+        <v>0.038997448339035</v>
       </c>
       <c r="P4" t="n">
-        <v>0.069142500855259</v>
+        <v>0.07977931293139399</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006156743241474</v>
+        <v>0.006910685647566</v>
       </c>
       <c r="R4" t="n">
-        <v>0.126871706585978</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.043890084672379</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.032109832429537</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.103574666271158</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.062601482698914</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.007502266063751</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.202505538393994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.086753153050382</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.093062067264752</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.024282355590826</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.035117316320656</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.019489388968613</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.080655250157948</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.02737382243701</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.038997448339035</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.07977931293139399</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.006910685647566</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.137372368559833</v>
       </c>
     </row>
